--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2684005.609837054</v>
+        <v>2681670.498635076</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>59.94668330577097</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>364.3371846173147</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>76.30362177848122</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>52.21681339464254</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>318.1437649779772</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>138.4227759882144</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>56.01246561959189</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>50.9807481254279</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>198.7866240250363</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.5398680316083</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>140.1918165590947</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>129.1078928223875</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.6028762599951</v>
+        <v>143.4157347120542</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187873</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>59.96838802184498</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484926</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573447</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>95.21019414968984</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>68.17501931583776</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>241.8115698409622</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>7.408064079030886</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>78.89395497654093</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>901.3425442071336</v>
+        <v>904.8820361188236</v>
       </c>
       <c r="C2" t="n">
-        <v>901.3425442071336</v>
+        <v>904.8820361188236</v>
       </c>
       <c r="D2" t="n">
-        <v>901.3425442071336</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>901.3425442071336</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4328,10 +4328,10 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4373,7 +4373,7 @@
         <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>901.3425442071336</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4410,22 +4410,22 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>664.1529317523638</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,16 +4486,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1347.327782578335</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>1294.583526624151</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>1066.593975726134</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="Y4" t="n">
-        <v>845.8013965826035</v>
+        <v>445.0465148290276</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1118.442187461269</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="C5" t="n">
-        <v>749.4796705208573</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D5" t="n">
-        <v>391.2139719141068</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251364</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.042027525391</v>
+        <v>2044.238074344125</v>
       </c>
       <c r="Y5" t="n">
-        <v>1505.042027525391</v>
+        <v>1654.098742368313</v>
       </c>
     </row>
     <row r="6">
@@ -4620,43 +4620,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657491</v>
+        <v>444.7476822882293</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378422</v>
+        <v>275.8114993603224</v>
       </c>
       <c r="D7" t="n">
-        <v>397.5455328255065</v>
+        <v>275.8114993603224</v>
       </c>
       <c r="E7" t="n">
-        <v>249.6324392431134</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>102.742491745203</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037536</v>
+        <v>672.7372331862466</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>444.7476822882293</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959889</v>
+        <v>444.7476822882293</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1844.338003964587</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1475.375487024175</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1117.109788417425</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>731.3215358191806</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>320.335631029573</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>309.3035849149736</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.5429342656</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2621.07717600452</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>2230.937844028709</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>550.0410834832817</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C10" t="n">
-        <v>381.1049005553748</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>952.4821274570515</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>731.6895483135214</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="11">
@@ -5033,22 +5033,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5063,25 +5063,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>114.2598873597751</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>448.1846595309957</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5203,46 +5203,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797765</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,13 +5264,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,46 +5279,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637304</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969311</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,52 +5501,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
         <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>695.5020655703109</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>545.3854261579752</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111727</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,37 +6212,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6315,16 +6315,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6443,31 +6443,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>962.6357307816191</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>793.6995478537123</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>1144.284195611859</v>
       </c>
     </row>
     <row r="32">
@@ -6680,25 +6680,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1444.131742904239</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1154.714572867279</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>926.7250219692613</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>705.9324428257312</v>
       </c>
     </row>
     <row r="35">
@@ -6932,10 +6932,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075811</v>
@@ -7023,19 +7023,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908939</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7214,7 +7214,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7391,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="44">
@@ -7649,16 +7649,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,16 +7722,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7786,19 +7786,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8058,28 +8058,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>54.95314511566573</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>224.3355197601774</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282434</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>19.50758019582483</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.22910392194223</v>
+        <v>36.41624546988314</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>86.46557462472418</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.5487903941879</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>18.49466557218872</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>45.44677382459261</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>53.40527886852252</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>72.11969353038613</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>10.32607348286584</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>279.1149342575601</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>24.63391537253449</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>66.52709304639032</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>774718.5412506659</v>
+        <v>774718.541250666</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>774718.5412506659</v>
+        <v>774718.541250666</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>774718.5412506661</v>
+        <v>774718.541250666</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>774718.5412506659</v>
+        <v>774718.541250666</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>774718.541250666</v>
+        <v>774718.5412506659</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>774718.5412506659</v>
+        <v>774718.541250666</v>
       </c>
     </row>
     <row r="13">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914272</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520054</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="J2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
         <v>645717.279752005</v>
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073553</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819058</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>87914.29116309556</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744269</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744264</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8727.256391744259</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8727.256391744255</v>
+      </c>
+      <c r="I4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
+        <v>8727.256391744259</v>
+      </c>
+      <c r="K4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="G4" t="n">
-        <v>8727.256391744299</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
+        <v>8727.256391744275</v>
+      </c>
+      <c r="N4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>8727.256391744308</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744306</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744315</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744284</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744284</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26522,46 +26522,46 @@
         <v>-686378.2771013204</v>
       </c>
       <c r="C6" t="n">
-        <v>428373.506474599</v>
+        <v>428373.5064745993</v>
       </c>
       <c r="D6" t="n">
-        <v>268358.0437265997</v>
+        <v>268358.0437265999</v>
       </c>
       <c r="E6" t="n">
-        <v>210455.0317289982</v>
+        <v>210420.2938035624</v>
       </c>
       <c r="F6" t="n">
-        <v>535867.4935363538</v>
+        <v>535832.7556109184</v>
       </c>
       <c r="G6" t="n">
-        <v>535867.4935363535</v>
+        <v>535832.7556109182</v>
       </c>
       <c r="H6" t="n">
-        <v>535867.4935363536</v>
+        <v>535832.7556109184</v>
       </c>
       <c r="I6" t="n">
-        <v>535867.4935363535</v>
+        <v>535832.7556109182</v>
       </c>
       <c r="J6" t="n">
-        <v>368262.3157263709</v>
+        <v>368227.5778009354</v>
       </c>
       <c r="K6" t="n">
-        <v>535867.4935363536</v>
+        <v>535832.7556109182</v>
       </c>
       <c r="L6" t="n">
-        <v>487573.5235281626</v>
+        <v>487538.7856027274</v>
       </c>
       <c r="M6" t="n">
-        <v>450812.4656008416</v>
+        <v>450777.7276754061</v>
       </c>
       <c r="N6" t="n">
-        <v>535867.4935363536</v>
+        <v>535832.755610918</v>
       </c>
       <c r="O6" t="n">
-        <v>535867.4935363535</v>
+        <v>535832.7556109177</v>
       </c>
       <c r="P6" t="n">
-        <v>535867.4935363535</v>
+        <v>535832.7556109178</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26790,25 +26790,25 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>294.736358314912</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>42.53886112439676</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>90.94319932014662</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,25 +27585,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>234.3061849419485</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>63.78660509428454</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>231.3083246902547</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>90.42149702697728</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>115.3258519193763</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,16 +27822,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>95.82114036228418</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468607</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>24.78568136090762</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>85.51783882994249</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,10 +31838,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>147.4873481937407</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>270.948695672726</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>383.9182138639285</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>522.1224556861829</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>287.9685048518521</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33500,16 +33500,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,10 +33518,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>626.4629682828348</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>421.8844773977062</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>615.5326193530514</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>617.0987427660937</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K11" t="n">
         <v>479.4543240367771</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>20.64972152707398</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191334</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010452</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507077</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>249.9438064495983</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>379.5262112417385</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>150.1270658774932</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,10 +37166,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
